--- a/src/main/java/com/coffee/ImportExcel/excel_ template/CreateWorkSchedule.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/CreateWorkSchedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E99FED-7E66-4342-83F4-BD1327A0FFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988AC776-E5C5-4899-953C-1F3562DA2DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3984" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -58,7 +58,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,12 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,18 +370,18 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="4"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -393,11 +391,11 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -405,13 +403,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>45402</v>
-      </c>
-      <c r="D2" s="4">
+        <v>45411</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -419,9 +417,9 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>45402</v>
-      </c>
-      <c r="D3" s="4">
+        <v>45411</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
     </row>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/CreateWorkSchedule.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/CreateWorkSchedule.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988AC776-E5C5-4899-953C-1F3562DA2DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0FE7B6-6289-4C3D-8307-27B09638ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -40,6 +51,9 @@
   </si>
   <si>
     <t>Nguyễn Minh Thuận</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Long</t>
   </si>
 </sst>
 </file>
@@ -367,17 +381,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375"/>
   </cols>
   <sheetData>
@@ -397,13 +411,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45411</v>
+        <v>45404</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -411,17 +425,394 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <f>A2</f>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45404</v>
+      </c>
+      <c r="D3">
+        <f>D2+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>B3</f>
+        <v>Nguyễn Hoàng Long</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3</f>
+        <v>45404</v>
+      </c>
+      <c r="D4">
+        <f>D3+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4+1</f>
+        <v>45405</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>A5</f>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <f>C4+1</f>
+        <v>45405</v>
+      </c>
+      <c r="D6">
+        <f>D5+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>45411</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
+      <c r="C7" s="2">
+        <f>C4+1</f>
+        <v>45405</v>
+      </c>
+      <c r="D7">
+        <f>D6+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C7+1</f>
+        <v>45406</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>A8</f>
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <f>C7+1</f>
+        <v>45406</v>
+      </c>
+      <c r="D9">
+        <f>D8+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C7+1</f>
+        <v>45406</v>
+      </c>
+      <c r="D10">
+        <f>D9+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C10+1</f>
+        <v>45407</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>A11</f>
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <f>C10+1</f>
+        <v>45407</v>
+      </c>
+      <c r="D12">
+        <f>D11+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <f>C10+1</f>
+        <v>45407</v>
+      </c>
+      <c r="D13">
+        <f>D12+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <f>C13+1</f>
+        <v>45408</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>A14</f>
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C13+1</f>
+        <v>45408</v>
+      </c>
+      <c r="D15">
+        <f>D14+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <f>C13+1</f>
+        <v>45408</v>
+      </c>
+      <c r="D16">
+        <f>D15+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <f>C16+1</f>
+        <v>45409</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>A17</f>
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <f>C16+1</f>
+        <v>45409</v>
+      </c>
+      <c r="D18">
+        <f>D17+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>A18+1</f>
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <f>C16+1</f>
+        <v>45409</v>
+      </c>
+      <c r="D19">
+        <f>D18+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <f>C19+1</f>
+        <v>45410</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>A20</f>
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <f>C19+1</f>
+        <v>45410</v>
+      </c>
+      <c r="D21">
+        <f>D20+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>A21+1</f>
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C19+1</f>
+        <v>45410</v>
+      </c>
+      <c r="D22">
+        <f>D21+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/CreateWorkSchedule.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/CreateWorkSchedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0FE7B6-6289-4C3D-8307-27B09638ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F0E0B-98CA-49F5-BE04-A36FA180D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4332" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -64,7 +64,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,7 +72,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -381,21 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -409,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -423,9 +422,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -435,29 +433,24 @@
         <v>45404</v>
       </c>
       <c r="D3">
-        <f>D2+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>B3</f>
-        <v>Nguyễn Hoàng Long</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <f>C3</f>
         <v>45404</v>
       </c>
       <c r="D4">
-        <f>D3+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -465,48 +458,41 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <f>C4+1</f>
         <v>45405</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5</f>
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <f>C4+1</f>
         <v>45405</v>
       </c>
       <c r="D6">
-        <f>D5+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <f>C4+1</f>
         <v>45405</v>
       </c>
       <c r="D7">
-        <f>D6+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -514,48 +500,41 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <f>C7+1</f>
         <v>45406</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8</f>
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <f>C7+1</f>
         <v>45406</v>
       </c>
       <c r="D9">
-        <f>D8+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <f>C7+1</f>
         <v>45406</v>
       </c>
       <c r="D10">
-        <f>D9+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -563,48 +542,41 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <f>C10+1</f>
         <v>45407</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11</f>
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <f>C10+1</f>
         <v>45407</v>
       </c>
       <c r="D12">
-        <f>D11+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2">
-        <f>C10+1</f>
         <v>45407</v>
       </c>
       <c r="D13">
-        <f>D12+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -612,48 +584,41 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <f>C13+1</f>
         <v>45408</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14</f>
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <f>C13+1</f>
         <v>45408</v>
       </c>
       <c r="D15">
-        <f>D14+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <f>C13+1</f>
         <v>45408</v>
       </c>
       <c r="D16">
-        <f>D15+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -661,48 +626,41 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <f>C16+1</f>
         <v>45409</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>A17</f>
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <f>C16+1</f>
         <v>45409</v>
       </c>
       <c r="D18">
-        <f>D17+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>A18+1</f>
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <f>C16+1</f>
         <v>45409</v>
       </c>
       <c r="D19">
-        <f>D18+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -710,109 +668,39 @@
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <f>C19+1</f>
         <v>45410</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>A20</f>
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <f>C19+1</f>
         <v>45410</v>
       </c>
       <c r="D21">
-        <f>D20+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>A21+1</f>
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <f>C19+1</f>
         <v>45410</v>
       </c>
       <c r="D22">
-        <f>D21+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/CreateWorkSchedule.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/CreateWorkSchedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F0E0B-98CA-49F5-BE04-A36FA180D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8EDD7D-A4AA-42AB-BE85-13CB8D61DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="2676" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="10">
   <si>
     <t>Ngày làm việc</t>
   </si>
@@ -55,16 +55,28 @@
   <si>
     <t>Nguyễn Hoàng Long</t>
   </si>
+  <si>
+    <t>Vũ Minh Thuận</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Quang</t>
+  </si>
+  <si>
+    <t>Trần Huỳnh Đức Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,7 +84,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -97,10 +122,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,20 +414,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -407,8 +441,9 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -416,13 +451,14 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45404</v>
+        <v>45352</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -430,27 +466,29 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>45404</v>
+        <v>45352</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>45404</v>
+        <v>45352</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -458,13 +496,14 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>45405</v>
+        <v>45353</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -472,13 +511,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>45405</v>
+        <v>45353</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -486,13 +526,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>45405</v>
+        <v>45353</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -500,13 +541,14 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>45406</v>
+        <v>45354</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -514,13 +556,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>45406</v>
+        <v>45354</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -528,13 +571,14 @@
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <v>45406</v>
+        <v>45354</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -542,13 +586,14 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>45407</v>
+        <v>45355</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -556,27 +601,29 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <v>45407</v>
+        <v>45355</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>45407</v>
+        <v>45355</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -584,13 +631,14 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>45408</v>
+        <v>45356</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -598,13 +646,14 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>45408</v>
+        <v>45356</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -612,13 +661,14 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>45408</v>
+        <v>45356</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -626,13 +676,14 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>45409</v>
+        <v>45357</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -640,13 +691,14 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>45409</v>
+        <v>45357</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -654,13 +706,14 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>45409</v>
+        <v>45357</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -668,13 +721,14 @@
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>45410</v>
+        <v>45358</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -682,13 +736,14 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>45410</v>
+        <v>45358</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -696,13 +751,3885 @@
         <v>4</v>
       </c>
       <c r="C22" s="2">
-        <v>45410</v>
+        <v>45358</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45356</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45356</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45356</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45358</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45358</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45358</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45356</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45356</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45356</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45357</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45358</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45358</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45358</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45359</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45360</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45361</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45362</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45363</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45364</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45365</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45366</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45367</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45368</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45369</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45370</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45371</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>3</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="F200" s="4"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>9</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45372</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45373</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45374</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>3</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>4</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>7</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="F224" s="4"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="F225" s="4"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>7</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="F226" s="4"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>9</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45375</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="F230" s="4"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="2">
+        <v>45376</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="F232" s="4"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45377</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="F236" s="4"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="F237" s="4"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>3</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D241">
+        <v>3</v>
+      </c>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>7</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>4</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>4</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="F246" s="4"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="F248" s="4"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>6</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" s="2">
+        <v>45378</v>
+      </c>
+      <c r="D250">
+        <v>3</v>
+      </c>
+      <c r="F250" s="4"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>5</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>5</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="2">
+        <v>45379</v>
+      </c>
+      <c r="D253">
+        <v>3</v>
+      </c>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="F261" s="5"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>3</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D262">
+        <v>3</v>
+      </c>
+      <c r="F262" s="5"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>4</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
+      </c>
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>4</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>4</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>7</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="F269" s="5"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="F270" s="5"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>7</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D271">
+        <v>3</v>
+      </c>
+      <c r="F271" s="5"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>8</v>
+      </c>
+      <c r="C273" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" s="2">
+        <v>45380</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>5</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>6</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="2">
+        <v>45381</v>
+      </c>
+      <c r="D277">
+        <v>3</v>
+      </c>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="F278" s="5"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>5</v>
+      </c>
+      <c r="B279" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="F279" s="5"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>9</v>
+      </c>
+      <c r="C280" s="2">
+        <v>45382</v>
+      </c>
+      <c r="D280">
+        <v>3</v>
+      </c>
+      <c r="F280" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>